--- a/public/ShippmentB.xlsx
+++ b/public/ShippmentB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odanu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon1\www\Generate-Shipping-Mark\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3C9896-BE66-4E58-AF3A-50F570D194A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E90DB35-932C-45CC-A7CE-366118D7012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C014CC37-2391-4FCB-9007-32217DE6FA18}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7785" xr2:uid="{C014CC37-2391-4FCB-9007-32217DE6FA18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>ATRIBUT</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>LTD</t>
+  </si>
+  <si>
+    <t>NO SO</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFEEE6A-30D3-4BD8-BF60-209D6F72191B}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +487,7 @@
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +509,11 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -526,8 +535,11 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -549,8 +561,11 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -571,6 +586,9 @@
       </c>
       <c r="G4" t="s">
         <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
